--- a/QuestionList.xlsx
+++ b/QuestionList.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents and Settings\You-Wei Cheah\Documents\GitHub\l33tcode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="96" yWindow="156" windowWidth="18180" windowHeight="9996"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -612,8 +617,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -621,13 +626,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -638,6 +643,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -686,7 +694,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,7 +729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -932,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B45"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234:B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,7 +973,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -985,7 +993,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -997,7 +1005,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -1005,7 +1013,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1017,7 +1025,7 @@
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1025,25 +1033,25 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1058,27 +1066,27 @@
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -1093,10 +1101,10 @@
       <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1105,11 +1113,11 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1121,21 +1129,21 @@
       <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1147,21 +1155,21 @@
       <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1174,20 +1182,20 @@
         <v>3</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1199,23 +1207,23 @@
       <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1228,17 +1236,17 @@
         <v>2</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -1253,7 +1261,7 @@
       <c r="D23" s="4">
         <v>3</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1265,7 +1273,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1275,7 +1283,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1291,10 +1299,10 @@
       <c r="D26" s="4">
         <v>2</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1303,11 +1311,11 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1320,20 +1328,20 @@
         <v>4</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1346,20 +1354,20 @@
         <v>4</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>14</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1371,21 +1379,21 @@
       <c r="D32" s="4">
         <v>1</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="3"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>15</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1397,23 +1405,23 @@
       <c r="D34" s="5">
         <v>5</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="E34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>16</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1425,23 +1433,23 @@
       <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
         <v>17</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1453,23 +1461,23 @@
       <c r="D38" s="4">
         <v>3</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>18</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1481,21 +1489,21 @@
       <c r="D40" s="4">
         <v>2</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
         <v>19</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1507,23 +1515,23 @@
       <c r="D42" s="4">
         <v>3</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="3">
         <v>20</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1535,23 +1543,23 @@
       <c r="D44" s="5">
         <v>5</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="3">
         <v>21</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1563,7 +1571,7 @@
       <c r="D46" s="5">
         <v>5</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -1571,35 +1579,35 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="3"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="3"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="3">
         <v>22</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1611,20 +1619,20 @@
       <c r="D50" s="5">
         <v>4</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -1677,7 +1685,7 @@
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="A56" s="3">
         <v>24</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -1689,17 +1697,17 @@
       <c r="D56" s="5">
         <v>4</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="6"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1715,7 +1723,7 @@
       <c r="D58" s="4">
         <v>2</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -1727,7 +1735,7 @@
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="3"/>
+      <c r="E59" s="6"/>
       <c r="F59" s="2" t="s">
         <v>4</v>
       </c>
@@ -1737,11 +1745,11 @@
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="3"/>
+      <c r="E60" s="6"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+      <c r="A61" s="3">
         <v>26</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1753,23 +1761,23 @@
       <c r="D61" s="4">
         <v>3</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="E61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+      <c r="A63" s="3">
         <v>27</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -1781,23 +1789,23 @@
       <c r="D63" s="5">
         <v>4</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="E63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
+      <c r="A65" s="3">
         <v>28</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -1809,7 +1817,7 @@
       <c r="D65" s="5">
         <v>5</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -1817,35 +1825,35 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="3"/>
+      <c r="E66" s="6"/>
       <c r="F66" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="3"/>
+      <c r="E67" s="6"/>
       <c r="F67" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="3"/>
+      <c r="E68" s="6"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
+      <c r="A69" s="3">
         <v>29</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -1863,7 +1871,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -1873,7 +1881,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1893,10 +1901,10 @@
       <c r="D72" s="4">
         <v>1</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1905,8 +1913,8 @@
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
@@ -1921,10 +1929,10 @@
       <c r="D74" s="4">
         <v>2</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="E74" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1933,11 +1941,11 @@
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+      <c r="A76" s="3">
         <v>32</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -1949,23 +1957,23 @@
       <c r="D76" s="4">
         <v>1</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+      <c r="A78" s="3">
         <v>33</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -1977,20 +1985,20 @@
       <c r="D78" s="4">
         <v>3</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3" t="s">
+      <c r="E78" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
@@ -2005,10 +2013,10 @@
       <c r="D80" s="4">
         <v>3</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="E80" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2017,11 +2025,11 @@
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+      <c r="A82" s="3">
         <v>35</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -2033,21 +2041,21 @@
       <c r="D82" s="4">
         <v>2</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="3"/>
+      <c r="E83" s="6"/>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+      <c r="A84" s="3">
         <v>36</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -2059,17 +2067,17 @@
       <c r="D84" s="4">
         <v>2</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="3"/>
+      <c r="E85" s="6"/>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2085,10 +2093,10 @@
       <c r="D86" s="4">
         <v>2</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="E86" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2097,8 +2105,8 @@
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
@@ -2113,10 +2121,10 @@
       <c r="D88" s="4">
         <v>2</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2125,11 +2133,11 @@
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
+      <c r="A90" s="3">
         <v>39</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -2141,23 +2149,23 @@
       <c r="D90" s="4">
         <v>3</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3" t="s">
+      <c r="E90" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+      <c r="A92" s="3">
         <v>40</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -2169,23 +2177,23 @@
       <c r="D92" s="4">
         <v>2</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" s="3" t="s">
+      <c r="E92" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
+      <c r="A94" s="3">
         <v>41</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -2197,20 +2205,20 @@
       <c r="D94" s="4">
         <v>2</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94" s="3" t="s">
+      <c r="E94" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
     </row>
     <row r="96" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
@@ -2225,7 +2233,7 @@
       <c r="D96" s="4">
         <v>2</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F96" s="2" t="s">
@@ -2237,7 +2245,7 @@
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="3"/>
+      <c r="E97" s="6"/>
       <c r="F97" s="2" t="s">
         <v>64</v>
       </c>
@@ -2247,7 +2255,7 @@
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="3"/>
+      <c r="E98" s="6"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2263,7 +2271,7 @@
       <c r="D99" s="4">
         <v>3</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -2275,7 +2283,7 @@
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="3"/>
+      <c r="E100" s="6"/>
       <c r="F100" s="2" t="s">
         <v>8</v>
       </c>
@@ -2285,7 +2293,7 @@
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="3"/>
+      <c r="E101" s="6"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2301,7 +2309,7 @@
       <c r="D102" s="4">
         <v>3</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="2" t="s">
@@ -2313,7 +2321,7 @@
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="3"/>
+      <c r="E103" s="6"/>
       <c r="F103" s="2" t="s">
         <v>22</v>
       </c>
@@ -2323,7 +2331,7 @@
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
+      <c r="E104" s="6"/>
       <c r="F104" s="2" t="s">
         <v>67</v>
       </c>
@@ -2333,11 +2341,11 @@
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="3"/>
+      <c r="E105" s="6"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6">
+      <c r="A106" s="3">
         <v>45</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -2349,17 +2357,17 @@
       <c r="D106" s="4">
         <v>2</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F106" s="4"/>
     </row>
     <row r="107" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6"/>
+      <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="3"/>
+      <c r="E107" s="6"/>
       <c r="F107" s="4"/>
     </row>
     <row r="108" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2375,10 +2383,10 @@
       <c r="D108" s="5">
         <v>4</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" s="3" t="s">
+      <c r="E108" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2387,8 +2395,8 @@
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
@@ -2403,10 +2411,10 @@
       <c r="D110" s="4">
         <v>2</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110" s="3" t="s">
+      <c r="E110" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2415,11 +2423,11 @@
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
     </row>
     <row r="112" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6">
+      <c r="A112" s="3">
         <v>48</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -2428,20 +2436,20 @@
       <c r="C112" s="4">
         <v>4</v>
       </c>
-      <c r="D112" s="7">
-        <v>2</v>
-      </c>
-      <c r="E112" s="3" t="s">
+      <c r="D112" s="8">
+        <v>2</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F112" s="4"/>
     </row>
     <row r="113" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6"/>
+      <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="3"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="6"/>
       <c r="F113" s="4"/>
     </row>
     <row r="114" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2481,7 +2489,7 @@
       <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
+      <c r="A117" s="3">
         <v>50</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -2499,7 +2507,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6"/>
+      <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
@@ -2509,7 +2517,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="6"/>
+      <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
@@ -2529,10 +2537,10 @@
       <c r="D120" s="4">
         <v>3</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="E120" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2541,8 +2549,8 @@
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
     </row>
     <row r="122" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
@@ -2557,10 +2565,10 @@
       <c r="D122" s="4">
         <v>3</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F122" s="3" t="s">
+      <c r="E122" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F122" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2569,11 +2577,11 @@
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
     </row>
     <row r="124" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="6">
+      <c r="A124" s="3">
         <v>53</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -2585,23 +2593,23 @@
       <c r="D124" s="4">
         <v>3</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F124" s="3" t="s">
+      <c r="E124" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="6"/>
+      <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
     </row>
     <row r="126" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="6">
+      <c r="A126" s="3">
         <v>54</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -2613,21 +2621,21 @@
       <c r="D126" s="4">
         <v>2</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="6"/>
+      <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="3"/>
+      <c r="E127" s="6"/>
       <c r="F127" s="4"/>
     </row>
     <row r="128" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6">
+      <c r="A128" s="3">
         <v>55</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -2639,17 +2647,17 @@
       <c r="D128" s="4">
         <v>2</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="6"/>
+      <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="3"/>
+      <c r="E129" s="6"/>
       <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2753,7 +2761,7 @@
       <c r="F137" s="1"/>
     </row>
     <row r="138" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="6">
+      <c r="A138" s="3">
         <v>58</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -2765,21 +2773,21 @@
       <c r="D138" s="4">
         <v>1</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6"/>
+      <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="3"/>
+      <c r="E139" s="6"/>
       <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="6">
+      <c r="A140" s="3">
         <v>59</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -2791,17 +2799,17 @@
       <c r="D140" s="4">
         <v>2</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6"/>
+      <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="3"/>
+      <c r="E141" s="6"/>
       <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2841,7 +2849,7 @@
       <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6">
+      <c r="A145" s="3">
         <v>61</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -2853,20 +2861,20 @@
       <c r="D145" s="4">
         <v>2</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F145" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="6"/>
+      <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
@@ -2881,10 +2889,10 @@
       <c r="D147" s="4">
         <v>3</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F147" s="3" t="s">
+      <c r="E147" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2893,8 +2901,8 @@
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
     </row>
     <row r="149" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
@@ -2909,10 +2917,10 @@
       <c r="D149" s="4">
         <v>3</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F149" s="3" t="s">
+      <c r="E149" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2921,8 +2929,8 @@
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
@@ -2937,10 +2945,10 @@
       <c r="D151" s="4">
         <v>3</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F151" s="3" t="s">
+      <c r="E151" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2949,11 +2957,11 @@
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
     </row>
     <row r="153" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6">
+      <c r="A153" s="3">
         <v>65</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -2965,23 +2973,23 @@
       <c r="D153" s="5">
         <v>5</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="F153" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6"/>
+      <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
     </row>
     <row r="155" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6">
+      <c r="A155" s="3">
         <v>66</v>
       </c>
       <c r="B155" s="4" t="s">
@@ -2993,23 +3001,23 @@
       <c r="D155" s="4">
         <v>2</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F155" s="3" t="s">
+      <c r="E155" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="6"/>
+      <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
     </row>
     <row r="157" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="6">
+      <c r="A157" s="3">
         <v>67</v>
       </c>
       <c r="B157" s="4" t="s">
@@ -3021,7 +3029,7 @@
       <c r="D157" s="5">
         <v>4</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F157" s="2" t="s">
@@ -3029,21 +3037,21 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="6"/>
+      <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="3"/>
+      <c r="E158" s="6"/>
       <c r="F158" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="6"/>
+      <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="3"/>
+      <c r="E159" s="6"/>
       <c r="F159" s="1"/>
     </row>
     <row r="160" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3059,7 +3067,7 @@
       <c r="D160" s="4">
         <v>2</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="4"/>
@@ -3069,11 +3077,11 @@
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="3"/>
+      <c r="E161" s="6"/>
       <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="6">
+      <c r="A162" s="3">
         <v>69</v>
       </c>
       <c r="B162" s="4" t="s">
@@ -3086,20 +3094,20 @@
         <v>4</v>
       </c>
       <c r="E162" s="4"/>
-      <c r="F162" s="3" t="s">
+      <c r="F162" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="6"/>
+      <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="4"/>
-      <c r="F163" s="3"/>
+      <c r="F163" s="6"/>
     </row>
     <row r="164" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="6">
+      <c r="A164" s="3">
         <v>70</v>
       </c>
       <c r="B164" s="4" t="s">
@@ -3112,20 +3120,20 @@
         <v>5</v>
       </c>
       <c r="E164" s="4"/>
-      <c r="F164" s="3" t="s">
+      <c r="F164" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="6"/>
+      <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="5"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="3"/>
+      <c r="F165" s="6"/>
     </row>
     <row r="166" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="6">
+      <c r="A166" s="3">
         <v>71</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -3137,20 +3145,20 @@
       <c r="D166" s="4">
         <v>1</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F166" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="6"/>
+      <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
     </row>
     <row r="168" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
@@ -3165,10 +3173,10 @@
       <c r="D168" s="4">
         <v>3</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="F168" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3177,8 +3185,8 @@
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
     </row>
     <row r="170" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
@@ -3193,7 +3201,7 @@
       <c r="D170" s="5">
         <v>5</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F170" s="4"/>
@@ -3203,7 +3211,7 @@
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="5"/>
-      <c r="E171" s="3"/>
+      <c r="E171" s="6"/>
       <c r="F171" s="4"/>
     </row>
     <row r="172" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3219,10 +3227,10 @@
       <c r="D172" s="4">
         <v>3</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F172" s="3" t="s">
+      <c r="E172" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3231,8 +3239,8 @@
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
     </row>
     <row r="174" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
@@ -3247,7 +3255,7 @@
       <c r="D174" s="4">
         <v>2</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F174" s="2" t="s">
@@ -3259,7 +3267,7 @@
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="3"/>
+      <c r="E175" s="6"/>
       <c r="F175" s="2" t="s">
         <v>4</v>
       </c>
@@ -3269,7 +3277,7 @@
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="3"/>
+      <c r="E176" s="6"/>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3285,10 +3293,10 @@
       <c r="D177" s="4">
         <v>2</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="F177" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3297,11 +3305,11 @@
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
     </row>
     <row r="179" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="6">
+      <c r="A179" s="3">
         <v>77</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -3314,17 +3322,17 @@
         <v>4</v>
       </c>
       <c r="E179" s="4"/>
-      <c r="F179" s="3" t="s">
+      <c r="F179" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="6"/>
+      <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="5"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="3"/>
+      <c r="F180" s="6"/>
     </row>
     <row r="181" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
@@ -3339,7 +3347,7 @@
       <c r="D181" s="5">
         <v>4</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F181" s="2" t="s">
@@ -3351,7 +3359,7 @@
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="5"/>
-      <c r="E182" s="3"/>
+      <c r="E182" s="6"/>
       <c r="F182" s="2" t="s">
         <v>105</v>
       </c>
@@ -3361,7 +3369,7 @@
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="5"/>
-      <c r="E183" s="3"/>
+      <c r="E183" s="6"/>
       <c r="F183" s="1"/>
     </row>
     <row r="184" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3377,10 +3385,10 @@
       <c r="D184" s="5">
         <v>4</v>
       </c>
-      <c r="E184" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F184" s="3" t="s">
+      <c r="E184" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F184" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3389,11 +3397,11 @@
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="5"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
     </row>
     <row r="186" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="6">
+      <c r="A186" s="3">
         <v>80</v>
       </c>
       <c r="B186" s="4" t="s">
@@ -3405,20 +3413,20 @@
       <c r="D186" s="4">
         <v>2</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F186" s="3" t="s">
+      <c r="E186" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="6"/>
+      <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
     </row>
     <row r="188" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
@@ -3433,10 +3441,10 @@
       <c r="D188" s="4">
         <v>3</v>
       </c>
-      <c r="E188" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F188" s="3" t="s">
+      <c r="E188" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F188" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3445,11 +3453,11 @@
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
     </row>
     <row r="190" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="6">
+      <c r="A190" s="3">
         <v>82</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -3461,7 +3469,7 @@
       <c r="D190" s="4">
         <v>3</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F190" s="2" t="s">
@@ -3469,25 +3477,25 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="6"/>
+      <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="3"/>
+      <c r="E191" s="6"/>
       <c r="F191" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="6"/>
+      <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="3"/>
+      <c r="E192" s="6"/>
       <c r="F192" s="1"/>
     </row>
     <row r="193" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="6">
+      <c r="A193" s="3">
         <v>83</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -3499,17 +3507,17 @@
       <c r="D193" s="4">
         <v>3</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F193" s="4"/>
     </row>
     <row r="194" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="6"/>
+      <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="3"/>
+      <c r="E194" s="6"/>
       <c r="F194" s="4"/>
     </row>
     <row r="195" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3525,10 +3533,10 @@
       <c r="D195" s="4">
         <v>2</v>
       </c>
-      <c r="E195" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F195" s="3" t="s">
+      <c r="E195" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3537,8 +3545,8 @@
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
     </row>
     <row r="197" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
@@ -3553,7 +3561,7 @@
       <c r="D197" s="4">
         <v>1</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F197" s="2" t="s">
@@ -3565,7 +3573,7 @@
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
-      <c r="E198" s="3"/>
+      <c r="E198" s="6"/>
       <c r="F198" s="2" t="s">
         <v>64</v>
       </c>
@@ -3575,7 +3583,7 @@
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
-      <c r="E199" s="3"/>
+      <c r="E199" s="6"/>
       <c r="F199" s="1"/>
     </row>
     <row r="200" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3591,10 +3599,10 @@
       <c r="D200" s="4">
         <v>3</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E200" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="F200" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3603,8 +3611,8 @@
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
     </row>
     <row r="202" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
@@ -3619,7 +3627,7 @@
       <c r="D202" s="4">
         <v>2</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
@@ -3631,7 +3639,7 @@
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="3"/>
+      <c r="E203" s="6"/>
       <c r="F203" s="2" t="s">
         <v>22</v>
       </c>
@@ -3641,11 +3649,11 @@
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="3"/>
+      <c r="E204" s="6"/>
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="6">
+      <c r="A205" s="3">
         <v>88</v>
       </c>
       <c r="B205" s="4" t="s">
@@ -3657,7 +3665,7 @@
       <c r="D205" s="5">
         <v>5</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E205" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F205" s="2" t="s">
@@ -3665,21 +3673,21 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="6"/>
+      <c r="A206" s="3"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="5"/>
-      <c r="E206" s="3"/>
+      <c r="E206" s="6"/>
       <c r="F206" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="6"/>
+      <c r="A207" s="3"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="5"/>
-      <c r="E207" s="3"/>
+      <c r="E207" s="6"/>
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3696,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="E208" s="4"/>
-      <c r="F208" s="3" t="s">
+      <c r="F208" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3706,7 +3714,7 @@
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="3"/>
+      <c r="F209" s="6"/>
     </row>
     <row r="210" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
@@ -3721,7 +3729,7 @@
       <c r="D210" s="4">
         <v>2</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F210" s="2" t="s">
@@ -3733,7 +3741,7 @@
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
-      <c r="E211" s="3"/>
+      <c r="E211" s="6"/>
       <c r="F211" s="2" t="s">
         <v>105</v>
       </c>
@@ -3743,7 +3751,7 @@
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
-      <c r="E212" s="3"/>
+      <c r="E212" s="6"/>
       <c r="F212" s="1"/>
     </row>
     <row r="213" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3759,7 +3767,7 @@
       <c r="D213" s="5">
         <v>4</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F213" s="2" t="s">
@@ -3771,7 +3779,7 @@
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="5"/>
-      <c r="E214" s="3"/>
+      <c r="E214" s="6"/>
       <c r="F214" s="2" t="s">
         <v>22</v>
       </c>
@@ -3781,7 +3789,7 @@
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="5"/>
-      <c r="E215" s="3"/>
+      <c r="E215" s="6"/>
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3797,10 +3805,10 @@
       <c r="D216" s="4">
         <v>2</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E216" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F216" s="3" t="s">
+      <c r="F216" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3809,8 +3817,8 @@
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
     </row>
     <row r="218" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
@@ -3825,10 +3833,10 @@
       <c r="D218" s="4">
         <v>3</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="E218" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="F218" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3837,8 +3845,8 @@
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
     </row>
     <row r="220" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
@@ -3903,7 +3911,7 @@
       <c r="D224" s="4">
         <v>1</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="E224" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F224" s="2" t="s">
@@ -3915,7 +3923,7 @@
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
-      <c r="E225" s="3"/>
+      <c r="E225" s="6"/>
       <c r="F225" s="2" t="s">
         <v>126</v>
       </c>
@@ -3925,7 +3933,7 @@
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
-      <c r="E226" s="3"/>
+      <c r="E226" s="6"/>
       <c r="F226" s="1"/>
     </row>
     <row r="227" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3941,10 +3949,10 @@
       <c r="D227" s="4">
         <v>1</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="E227" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F227" s="3" t="s">
+      <c r="F227" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3953,8 +3961,8 @@
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
     </row>
     <row r="229" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
@@ -3969,7 +3977,7 @@
       <c r="D229" s="4">
         <v>2</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E229" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F229" s="2" t="s">
@@ -3981,7 +3989,7 @@
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
-      <c r="E230" s="3"/>
+      <c r="E230" s="6"/>
       <c r="F230" s="2" t="s">
         <v>22</v>
       </c>
@@ -3991,11 +3999,11 @@
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
-      <c r="E231" s="3"/>
+      <c r="E231" s="6"/>
       <c r="F231" s="1"/>
     </row>
     <row r="232" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="6">
+      <c r="A232" s="3">
         <v>98</v>
       </c>
       <c r="B232" s="4" t="s">
@@ -4007,20 +4015,20 @@
       <c r="D232" s="5">
         <v>5</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E232" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="F232" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="6"/>
+      <c r="A233" s="3"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="5"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
     </row>
     <row r="234" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
@@ -4035,10 +4043,10 @@
       <c r="D234" s="4">
         <v>2</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="E234" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="F234" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4047,11 +4055,11 @@
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
     </row>
     <row r="236" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="6">
+      <c r="A236" s="3">
         <v>100</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -4063,23 +4071,23 @@
       <c r="D236" s="4">
         <v>1</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E236" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="F236" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="6"/>
+      <c r="A237" s="3"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
     </row>
     <row r="238" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="4">
+      <c r="A238" s="3">
         <v>101</v>
       </c>
       <c r="B238" s="4" t="s">
@@ -4091,20 +4099,20 @@
       <c r="D238" s="4">
         <v>2</v>
       </c>
-      <c r="E238" s="3" t="s">
+      <c r="E238" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="F238" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="4"/>
+      <c r="A239" s="3"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
     </row>
     <row r="240" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
@@ -4119,10 +4127,10 @@
       <c r="D240" s="5">
         <v>4</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="E240" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F240" s="3" t="s">
+      <c r="F240" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4131,8 +4139,8 @@
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="5"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
     </row>
     <row r="242" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
@@ -4175,7 +4183,7 @@
       <c r="F244" s="1"/>
     </row>
     <row r="245" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="6">
+      <c r="A245" s="3">
         <v>104</v>
       </c>
       <c r="B245" s="4" t="s">
@@ -4187,20 +4195,20 @@
       <c r="D245" s="4">
         <v>1</v>
       </c>
-      <c r="E245" s="3" t="s">
+      <c r="E245" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="F245" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="6"/>
+      <c r="A246" s="3"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
     </row>
     <row r="247" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
@@ -4218,7 +4226,7 @@
       <c r="E247" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F247" s="3" t="s">
+      <c r="F247" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4230,7 +4238,7 @@
       <c r="E248" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F248" s="3"/>
+      <c r="F248" s="6"/>
     </row>
     <row r="249" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
@@ -4238,7 +4246,7 @@
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="3"/>
+      <c r="F249" s="6"/>
     </row>
     <row r="250" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
@@ -4256,7 +4264,7 @@
       <c r="E250" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F250" s="3" t="s">
+      <c r="F250" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4268,7 +4276,7 @@
       <c r="E251" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F251" s="3"/>
+      <c r="F251" s="6"/>
     </row>
     <row r="252" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
@@ -4276,7 +4284,7 @@
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="3"/>
+      <c r="F252" s="6"/>
     </row>
     <row r="253" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
@@ -4291,10 +4299,10 @@
       <c r="D253" s="4">
         <v>1</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="E253" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F253" s="3" t="s">
+      <c r="F253" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4303,8 +4311,8 @@
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
     </row>
     <row r="255" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
@@ -4319,10 +4327,10 @@
       <c r="D255" s="4">
         <v>3</v>
       </c>
-      <c r="E255" s="3" t="s">
+      <c r="E255" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F255" s="3" t="s">
+      <c r="F255" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4331,8 +4339,8 @@
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
     </row>
     <row r="257" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
@@ -4347,7 +4355,7 @@
       <c r="D257" s="4">
         <v>3</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="E257" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F257" s="2" t="s">
@@ -4359,7 +4367,7 @@
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
-      <c r="E258" s="3"/>
+      <c r="E258" s="6"/>
       <c r="F258" s="2" t="s">
         <v>4</v>
       </c>
@@ -4369,7 +4377,7 @@
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
-      <c r="E259" s="3"/>
+      <c r="E259" s="6"/>
       <c r="F259" s="1"/>
     </row>
     <row r="260" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4385,10 +4393,10 @@
       <c r="D260" s="4">
         <v>2</v>
       </c>
-      <c r="E260" s="3" t="s">
+      <c r="E260" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F260" s="3" t="s">
+      <c r="F260" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4397,11 +4405,11 @@
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
     </row>
     <row r="262" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="6">
+      <c r="A262" s="3">
         <v>111</v>
       </c>
       <c r="B262" s="4" t="s">
@@ -4413,23 +4421,23 @@
       <c r="D262" s="4">
         <v>1</v>
       </c>
-      <c r="E262" s="3" t="s">
+      <c r="E262" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F262" s="3" t="s">
+      <c r="F262" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="6"/>
+      <c r="A263" s="3"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="3"/>
-      <c r="F263" s="3"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
     </row>
     <row r="264" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="6">
+      <c r="A264" s="3">
         <v>112</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -4441,23 +4449,23 @@
       <c r="D264" s="4">
         <v>3</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="E264" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F264" s="3" t="s">
+      <c r="F264" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="6"/>
+      <c r="A265" s="3"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
     </row>
     <row r="266" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="6">
+      <c r="A266" s="3">
         <v>113</v>
       </c>
       <c r="B266" s="4" t="s">
@@ -4469,20 +4477,20 @@
       <c r="D266" s="4">
         <v>2</v>
       </c>
-      <c r="E266" s="3" t="s">
+      <c r="E266" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F266" s="3" t="s">
+      <c r="F266" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="6"/>
+      <c r="A267" s="3"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
     </row>
     <row r="268" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
@@ -4497,7 +4505,7 @@
       <c r="D268" s="4">
         <v>3</v>
       </c>
-      <c r="E268" s="3" t="s">
+      <c r="E268" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F268" s="2" t="s">
@@ -4509,7 +4517,7 @@
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
-      <c r="E269" s="3"/>
+      <c r="E269" s="6"/>
       <c r="F269" s="2" t="s">
         <v>64</v>
       </c>
@@ -4519,7 +4527,7 @@
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
-      <c r="E270" s="3"/>
+      <c r="E270" s="6"/>
       <c r="F270" s="1"/>
     </row>
     <row r="271" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4535,10 +4543,10 @@
       <c r="D271" s="4">
         <v>2</v>
       </c>
-      <c r="E271" s="3" t="s">
+      <c r="E271" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F271" s="3" t="s">
+      <c r="F271" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4547,8 +4555,8 @@
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
     </row>
     <row r="273" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
@@ -4563,10 +4571,10 @@
       <c r="D273" s="4">
         <v>3</v>
       </c>
-      <c r="E273" s="3" t="s">
+      <c r="E273" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F273" s="3" t="s">
+      <c r="F273" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4575,8 +4583,8 @@
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
-      <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
     </row>
     <row r="275" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
@@ -4591,10 +4599,10 @@
       <c r="D275" s="4">
         <v>2</v>
       </c>
-      <c r="E275" s="3" t="s">
+      <c r="E275" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F275" s="3" t="s">
+      <c r="F275" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4603,11 +4611,11 @@
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
     </row>
     <row r="277" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="6">
+      <c r="A277" s="3">
         <v>118</v>
       </c>
       <c r="B277" s="4" t="s">
@@ -4619,21 +4627,21 @@
       <c r="D277" s="4">
         <v>1</v>
       </c>
-      <c r="E277" s="3" t="s">
+      <c r="E277" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F277" s="4"/>
     </row>
     <row r="278" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="6"/>
+      <c r="A278" s="3"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="3"/>
+      <c r="E278" s="6"/>
       <c r="F278" s="4"/>
     </row>
     <row r="279" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="6">
+      <c r="A279" s="3">
         <v>119</v>
       </c>
       <c r="B279" s="4" t="s">
@@ -4645,17 +4653,17 @@
       <c r="D279" s="4">
         <v>1</v>
       </c>
-      <c r="E279" s="3" t="s">
+      <c r="E279" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F279" s="4"/>
     </row>
     <row r="280" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="6"/>
+      <c r="A280" s="3"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
-      <c r="E280" s="3"/>
+      <c r="E280" s="6"/>
       <c r="F280" s="4"/>
     </row>
     <row r="281" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4671,10 +4679,10 @@
       <c r="D281" s="4">
         <v>1</v>
       </c>
-      <c r="E281" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F281" s="3" t="s">
+      <c r="E281" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F281" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4683,8 +4691,8 @@
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
     </row>
     <row r="283" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
@@ -4699,10 +4707,10 @@
       <c r="D283" s="4">
         <v>1</v>
       </c>
-      <c r="E283" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F283" s="3" t="s">
+      <c r="E283" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F283" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4711,8 +4719,8 @@
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
-      <c r="E284" s="3"/>
-      <c r="F284" s="3"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
     </row>
     <row r="285" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
@@ -4727,10 +4735,10 @@
       <c r="D285" s="4">
         <v>1</v>
       </c>
-      <c r="E285" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F285" s="3" t="s">
+      <c r="E285" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F285" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4739,8 +4747,8 @@
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
     </row>
     <row r="287" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
@@ -4755,10 +4763,10 @@
       <c r="D287" s="4">
         <v>1</v>
       </c>
-      <c r="E287" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F287" s="3" t="s">
+      <c r="E287" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F287" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4767,8 +4775,8 @@
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
-      <c r="E288" s="3"/>
-      <c r="F288" s="3"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
     </row>
     <row r="289" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
@@ -4783,10 +4791,10 @@
       <c r="D289" s="4">
         <v>2</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="E289" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F289" s="3" t="s">
+      <c r="F289" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4795,11 +4803,11 @@
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
-      <c r="E290" s="3"/>
-      <c r="F290" s="3"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
     </row>
     <row r="291" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="6">
+      <c r="A291" s="3">
         <v>125</v>
       </c>
       <c r="B291" s="4" t="s">
@@ -4811,20 +4819,20 @@
       <c r="D291" s="5">
         <v>5</v>
       </c>
-      <c r="E291" s="3" t="s">
+      <c r="E291" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F291" s="3" t="s">
+      <c r="F291" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="6"/>
+      <c r="A292" s="3"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="5"/>
-      <c r="E292" s="3"/>
-      <c r="F292" s="3"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
     </row>
     <row r="293" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
@@ -4863,7 +4871,7 @@
       <c r="D295" s="5">
         <v>5</v>
       </c>
-      <c r="E295" s="3" t="s">
+      <c r="E295" s="6" t="s">
         <v>163</v>
       </c>
       <c r="F295" s="2" t="s">
@@ -4875,7 +4883,7 @@
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="5"/>
-      <c r="E296" s="3"/>
+      <c r="E296" s="6"/>
       <c r="F296" s="2" t="s">
         <v>164</v>
       </c>
@@ -4885,7 +4893,7 @@
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="5"/>
-      <c r="E297" s="3"/>
+      <c r="E297" s="6"/>
       <c r="F297" s="1"/>
     </row>
     <row r="298" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4901,7 +4909,7 @@
       <c r="D298" s="4">
         <v>3</v>
       </c>
-      <c r="E298" s="3" t="s">
+      <c r="E298" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F298" s="4"/>
@@ -4911,7 +4919,7 @@
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
-      <c r="E299" s="3"/>
+      <c r="E299" s="6"/>
       <c r="F299" s="4"/>
     </row>
     <row r="300" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4927,10 +4935,10 @@
       <c r="D300" s="5">
         <v>4</v>
       </c>
-      <c r="E300" s="3" t="s">
+      <c r="E300" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F300" s="3" t="s">
+      <c r="F300" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4939,8 +4947,8 @@
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="5"/>
-      <c r="E301" s="3"/>
-      <c r="F301" s="3"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
     </row>
     <row r="302" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
@@ -4955,7 +4963,7 @@
       <c r="D302" s="4">
         <v>3</v>
       </c>
-      <c r="E302" s="3" t="s">
+      <c r="E302" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F302" s="2" t="s">
@@ -4967,7 +4975,7 @@
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
-      <c r="E303" s="3"/>
+      <c r="E303" s="6"/>
       <c r="F303" s="2" t="s">
         <v>126</v>
       </c>
@@ -4977,7 +4985,7 @@
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
-      <c r="E304" s="3"/>
+      <c r="E304" s="6"/>
       <c r="F304" s="1"/>
     </row>
     <row r="305" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4993,10 +5001,10 @@
       <c r="D305" s="5">
         <v>4</v>
       </c>
-      <c r="E305" s="3" t="s">
+      <c r="E305" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F305" s="3" t="s">
+      <c r="F305" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5005,8 +5013,8 @@
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="5"/>
-      <c r="E306" s="3"/>
-      <c r="F306" s="3"/>
+      <c r="E306" s="6"/>
+      <c r="F306" s="6"/>
     </row>
     <row r="307" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
@@ -5021,10 +5029,10 @@
       <c r="D307" s="4">
         <v>3</v>
       </c>
-      <c r="E307" s="3" t="s">
+      <c r="E307" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F307" s="3" t="s">
+      <c r="F307" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5033,23 +5041,725 @@
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
-      <c r="E308" s="3"/>
-      <c r="F308" s="3"/>
+      <c r="E308" s="6"/>
+      <c r="F308" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="750">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F305:F306"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="F307:F308"/>
+    <mergeCell ref="D302:D304"/>
+    <mergeCell ref="E302:E304"/>
+    <mergeCell ref="A305:A306"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="E305:E306"/>
+    <mergeCell ref="A302:A304"/>
+    <mergeCell ref="B302:B304"/>
+    <mergeCell ref="C302:C304"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="E298:E299"/>
+    <mergeCell ref="F298:F299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="D300:D301"/>
+    <mergeCell ref="E300:E301"/>
+    <mergeCell ref="F300:F301"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="E293:E294"/>
+    <mergeCell ref="F293:F294"/>
+    <mergeCell ref="A295:A297"/>
+    <mergeCell ref="B295:B297"/>
+    <mergeCell ref="C295:C297"/>
+    <mergeCell ref="D295:D297"/>
+    <mergeCell ref="E295:E297"/>
+    <mergeCell ref="E289:E290"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="A291:A292"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="D291:D292"/>
+    <mergeCell ref="E291:E292"/>
+    <mergeCell ref="F291:F292"/>
+    <mergeCell ref="A293:A294"/>
+    <mergeCell ref="B293:B294"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="D293:D294"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="F283:F284"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="F277:F278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="F279:F280"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="F281:F282"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="F266:F267"/>
+    <mergeCell ref="F260:F261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="F262:F263"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="F264:F265"/>
+    <mergeCell ref="D257:D259"/>
+    <mergeCell ref="E257:E259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="A257:A259"/>
+    <mergeCell ref="B257:B259"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="F255:F256"/>
+    <mergeCell ref="D250:D252"/>
+    <mergeCell ref="F250:F252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="F253:F254"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="B250:B252"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="E245:E246"/>
+    <mergeCell ref="F245:F246"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="B247:B249"/>
+    <mergeCell ref="C247:C249"/>
+    <mergeCell ref="D247:D249"/>
+    <mergeCell ref="F247:F249"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="C242:C244"/>
+    <mergeCell ref="D242:D244"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="D229:D231"/>
+    <mergeCell ref="E229:E231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="E224:E226"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="D224:D226"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="D220:D223"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="E213:E215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="D210:D212"/>
+    <mergeCell ref="E210:E212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="E205:E207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="C202:C204"/>
+    <mergeCell ref="D202:D204"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="D205:D207"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="D190:D192"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="D181:D183"/>
+    <mergeCell ref="E181:E183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:E288"/>
+    <mergeCell ref="F287:F288"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="F275:F276"/>
+    <mergeCell ref="A268:A270"/>
+    <mergeCell ref="B268:B270"/>
+    <mergeCell ref="C268:C270"/>
+    <mergeCell ref="F271:F272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="F273:F274"/>
+    <mergeCell ref="D268:D270"/>
+    <mergeCell ref="E268:E270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="F238:F239"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="E234:E235"/>
+    <mergeCell ref="F234:F235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="A13:A14"/>
@@ -5074,720 +5784,18 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="E238:E239"/>
-    <mergeCell ref="F238:F239"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="D234:D235"/>
-    <mergeCell ref="E234:E235"/>
-    <mergeCell ref="F234:F235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="F275:F276"/>
-    <mergeCell ref="A268:A270"/>
-    <mergeCell ref="B268:B270"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="F271:F272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="E273:E274"/>
-    <mergeCell ref="F273:F274"/>
-    <mergeCell ref="D268:D270"/>
-    <mergeCell ref="E268:E270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="F287:F288"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="D181:D183"/>
-    <mergeCell ref="E181:E183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="D190:D192"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="E205:E207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="D202:D204"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="D205:D207"/>
-    <mergeCell ref="D213:D215"/>
-    <mergeCell ref="E213:E215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="D210:D212"/>
-    <mergeCell ref="E210:E212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="E224:E226"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="D224:D226"/>
-    <mergeCell ref="A220:A223"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="C220:C223"/>
-    <mergeCell ref="D220:D223"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="D229:D231"/>
-    <mergeCell ref="E229:E231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="E245:E246"/>
-    <mergeCell ref="F245:F246"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="B247:B249"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="D247:D249"/>
-    <mergeCell ref="F247:F249"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="F240:F241"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="C242:C244"/>
-    <mergeCell ref="D242:D244"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="F255:F256"/>
-    <mergeCell ref="D250:D252"/>
-    <mergeCell ref="F250:F252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="F253:F254"/>
-    <mergeCell ref="A250:A252"/>
-    <mergeCell ref="B250:B252"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="D257:D259"/>
-    <mergeCell ref="E257:E259"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="A257:A259"/>
-    <mergeCell ref="B257:B259"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="E266:E267"/>
-    <mergeCell ref="F266:F267"/>
-    <mergeCell ref="F260:F261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="E262:E263"/>
-    <mergeCell ref="F262:F263"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="E264:E265"/>
-    <mergeCell ref="F264:F265"/>
-    <mergeCell ref="E271:E272"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="F283:F284"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="F277:F278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="F279:F280"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="F281:F282"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="E293:E294"/>
-    <mergeCell ref="F293:F294"/>
-    <mergeCell ref="A295:A297"/>
-    <mergeCell ref="B295:B297"/>
-    <mergeCell ref="C295:C297"/>
-    <mergeCell ref="D295:D297"/>
-    <mergeCell ref="E295:E297"/>
-    <mergeCell ref="E289:E290"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="A291:A292"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="D291:D292"/>
-    <mergeCell ref="E291:E292"/>
-    <mergeCell ref="F291:F292"/>
-    <mergeCell ref="A293:A294"/>
-    <mergeCell ref="B293:B294"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="D293:D294"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="E298:E299"/>
-    <mergeCell ref="F298:F299"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="B300:B301"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="D300:D301"/>
-    <mergeCell ref="E300:E301"/>
-    <mergeCell ref="F300:F301"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="F305:F306"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="E307:E308"/>
-    <mergeCell ref="F307:F308"/>
-    <mergeCell ref="D302:D304"/>
-    <mergeCell ref="E302:E304"/>
-    <mergeCell ref="A305:A306"/>
-    <mergeCell ref="B305:B306"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="E305:E306"/>
-    <mergeCell ref="A302:A304"/>
-    <mergeCell ref="B302:B304"/>
-    <mergeCell ref="C302:C304"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/QuestionList.xlsx
+++ b/QuestionList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents and Settings\You-Wei Cheah\Documents\GitHub\l33tcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\You-Wei Cheah\Documents\GitHub\l33tcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="156" windowWidth="18180" windowHeight="9996"/>
+    <workbookView xWindow="8304" yWindow="156" windowWidth="18180" windowHeight="9996"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -617,22 +617,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234:B235"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253:A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,7 +973,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -982,7 +982,7 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -993,10 +993,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1005,15 +1005,15 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1022,10 +1022,10 @@
       <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1033,25 +1033,25 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1066,27 +1066,27 @@
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -1101,10 +1101,10 @@
       <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1113,11 +1113,11 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1129,21 +1129,21 @@
       <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1155,21 +1155,21 @@
       <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1182,20 +1182,20 @@
         <v>3</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1204,26 +1204,26 @@
       <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>5</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1236,17 +1236,17 @@
         <v>2</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -1261,7 +1261,7 @@
       <c r="D23" s="4">
         <v>3</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1273,7 +1273,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1283,7 +1283,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1299,10 +1299,10 @@
       <c r="D26" s="4">
         <v>2</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1311,11 +1311,11 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="5">
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1324,24 +1324,24 @@
       <c r="C28" s="4">
         <v>3</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
         <v>4</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="5">
         <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1350,24 +1350,24 @@
       <c r="C30" s="4">
         <v>2</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>4</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="5">
         <v>14</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1379,21 +1379,21 @@
       <c r="D32" s="4">
         <v>1</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="5">
         <v>15</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1402,26 +1402,26 @@
       <c r="C34" s="4">
         <v>3</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="6">
         <v>5</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="5">
         <v>16</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1433,23 +1433,23 @@
       <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="5">
         <v>17</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1461,23 +1461,23 @@
       <c r="D38" s="4">
         <v>3</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="5">
         <v>18</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1489,21 +1489,21 @@
       <c r="D40" s="4">
         <v>2</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="5">
         <v>19</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -1515,23 +1515,23 @@
       <c r="D42" s="4">
         <v>3</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="5">
         <v>20</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1540,26 +1540,26 @@
       <c r="C44" s="4">
         <v>2</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="6">
         <v>5</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="5">
         <v>21</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1568,10 +1568,10 @@
       <c r="C46" s="4">
         <v>2</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="6">
         <v>5</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -1579,35 +1579,35 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="5">
         <v>22</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1616,23 +1616,23 @@
       <c r="C50" s="4">
         <v>3</v>
       </c>
-      <c r="D50" s="5">
-        <v>4</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="6">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -1644,7 +1644,7 @@
       <c r="C52" s="4">
         <v>3</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="6">
         <v>4</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -1658,7 +1658,7 @@
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="2" t="s">
         <v>39</v>
       </c>
@@ -1670,7 +1670,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
         <v>36</v>
@@ -1680,12 +1680,12 @@
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="5">
         <v>24</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -1694,20 +1694,20 @@
       <c r="C56" s="4">
         <v>2</v>
       </c>
-      <c r="D56" s="5">
-        <v>4</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="D56" s="6">
+        <v>4</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="3"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1723,7 +1723,7 @@
       <c r="D58" s="4">
         <v>2</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -1735,7 +1735,7 @@
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="2" t="s">
         <v>4</v>
       </c>
@@ -1745,11 +1745,11 @@
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="6"/>
+      <c r="E60" s="3"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="5">
         <v>26</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -1761,23 +1761,23 @@
       <c r="D61" s="4">
         <v>3</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6" t="s">
+      <c r="E61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="5">
         <v>27</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -1786,26 +1786,26 @@
       <c r="C63" s="4">
         <v>1</v>
       </c>
-      <c r="D63" s="5">
-        <v>4</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6" t="s">
+      <c r="D63" s="6">
+        <v>4</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
+      <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="5">
         <v>28</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -1814,10 +1814,10 @@
       <c r="C65" s="4">
         <v>4</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="6">
         <v>5</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -1825,35 +1825,35 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
+      <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="5">
         <v>29</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -1881,7 +1881,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1901,10 +1901,10 @@
       <c r="D72" s="4">
         <v>1</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1913,8 +1913,8 @@
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
@@ -1929,10 +1929,10 @@
       <c r="D74" s="4">
         <v>2</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74" s="6" t="s">
+      <c r="E74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1941,11 +1941,11 @@
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="5">
         <v>32</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -1957,23 +1957,23 @@
       <c r="D76" s="4">
         <v>1</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
+      <c r="A77" s="5"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78" s="5">
         <v>33</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -1985,20 +1985,20 @@
       <c r="D78" s="4">
         <v>3</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="6" t="s">
+      <c r="E78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
+      <c r="A79" s="5"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
@@ -2013,10 +2013,10 @@
       <c r="D80" s="4">
         <v>3</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80" s="6" t="s">
+      <c r="E80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2025,11 +2025,11 @@
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82" s="5">
         <v>35</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -2041,21 +2041,21 @@
       <c r="D82" s="4">
         <v>2</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
+      <c r="A83" s="5"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="6"/>
+      <c r="E83" s="3"/>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84" s="5">
         <v>36</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -2067,17 +2067,17 @@
       <c r="D84" s="4">
         <v>2</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
+      <c r="A85" s="5"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="6"/>
+      <c r="E85" s="3"/>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2093,10 +2093,10 @@
       <c r="D86" s="4">
         <v>2</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86" s="6" t="s">
+      <c r="E86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2105,8 +2105,8 @@
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
@@ -2121,10 +2121,10 @@
       <c r="D88" s="4">
         <v>2</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2133,11 +2133,11 @@
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="5">
         <v>39</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -2149,23 +2149,23 @@
       <c r="D90" s="4">
         <v>3</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="6" t="s">
+      <c r="E90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
+      <c r="A91" s="5"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="5">
         <v>40</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -2177,23 +2177,23 @@
       <c r="D92" s="4">
         <v>2</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" s="6" t="s">
+      <c r="E92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
+      <c r="A93" s="5"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="5">
         <v>41</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -2205,20 +2205,20 @@
       <c r="D94" s="4">
         <v>2</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94" s="6" t="s">
+      <c r="E94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
+      <c r="A95" s="5"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
@@ -2233,7 +2233,7 @@
       <c r="D96" s="4">
         <v>2</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F96" s="2" t="s">
@@ -2245,7 +2245,7 @@
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="6"/>
+      <c r="E97" s="3"/>
       <c r="F97" s="2" t="s">
         <v>64</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="6"/>
+      <c r="E98" s="3"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2271,7 +2271,7 @@
       <c r="D99" s="4">
         <v>3</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -2283,7 +2283,7 @@
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="6"/>
+      <c r="E100" s="3"/>
       <c r="F100" s="2" t="s">
         <v>8</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="6"/>
+      <c r="E101" s="3"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2309,7 +2309,7 @@
       <c r="D102" s="4">
         <v>3</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="2" t="s">
@@ -2321,7 +2321,7 @@
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="6"/>
+      <c r="E103" s="3"/>
       <c r="F103" s="2" t="s">
         <v>22</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="6"/>
+      <c r="E104" s="3"/>
       <c r="F104" s="2" t="s">
         <v>67</v>
       </c>
@@ -2341,11 +2341,11 @@
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="6"/>
+      <c r="E105" s="3"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106" s="5">
         <v>45</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -2357,17 +2357,17 @@
       <c r="D106" s="4">
         <v>2</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F106" s="4"/>
     </row>
     <row r="107" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
+      <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="6"/>
+      <c r="E107" s="3"/>
       <c r="F107" s="4"/>
     </row>
     <row r="108" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2380,13 +2380,13 @@
       <c r="C108" s="4">
         <v>3</v>
       </c>
-      <c r="D108" s="5">
-        <v>4</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" s="6" t="s">
+      <c r="D108" s="6">
+        <v>4</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2394,9 +2394,9 @@
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
     </row>
     <row r="110" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
@@ -2411,10 +2411,10 @@
       <c r="D110" s="4">
         <v>2</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110" s="6" t="s">
+      <c r="E110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2423,11 +2423,11 @@
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
     </row>
     <row r="112" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112" s="5">
         <v>48</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -2436,20 +2436,20 @@
       <c r="C112" s="4">
         <v>4</v>
       </c>
-      <c r="D112" s="8">
-        <v>2</v>
-      </c>
-      <c r="E112" s="6" t="s">
+      <c r="D112" s="7">
+        <v>2</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F112" s="4"/>
     </row>
     <row r="113" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3"/>
+      <c r="A113" s="5"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="3"/>
       <c r="F113" s="4"/>
     </row>
     <row r="114" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2462,7 +2462,7 @@
       <c r="C114" s="4">
         <v>3</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="6">
         <v>4</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -2474,7 +2474,7 @@
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="5"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="2" t="s">
         <v>11</v>
       </c>
@@ -2484,12 +2484,12 @@
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="5"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="1"/>
       <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="A117" s="5">
         <v>50</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -2498,7 +2498,7 @@
       <c r="C117" s="4">
         <v>3</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="6">
         <v>5</v>
       </c>
       <c r="E117" s="4"/>
@@ -2507,20 +2507,20 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3"/>
+      <c r="A118" s="5"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="5"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="4"/>
       <c r="F118" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3"/>
+      <c r="A119" s="5"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="5"/>
+      <c r="D119" s="6"/>
       <c r="E119" s="4"/>
       <c r="F119" s="1"/>
     </row>
@@ -2537,10 +2537,10 @@
       <c r="D120" s="4">
         <v>3</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F120" s="6" t="s">
+      <c r="E120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2549,8 +2549,8 @@
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
@@ -2565,10 +2565,10 @@
       <c r="D122" s="4">
         <v>3</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F122" s="6" t="s">
+      <c r="E122" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2577,11 +2577,11 @@
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="A124" s="5">
         <v>53</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -2593,23 +2593,23 @@
       <c r="D124" s="4">
         <v>3</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F124" s="6" t="s">
+      <c r="E124" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3"/>
+      <c r="A125" s="5"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="A126" s="5">
         <v>54</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -2621,21 +2621,21 @@
       <c r="D126" s="4">
         <v>2</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E126" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3"/>
+      <c r="A127" s="5"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="6"/>
+      <c r="E127" s="3"/>
       <c r="F127" s="4"/>
     </row>
     <row r="128" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="A128" s="5">
         <v>55</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -2647,17 +2647,17 @@
       <c r="D128" s="4">
         <v>2</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3"/>
+      <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="6"/>
+      <c r="E129" s="3"/>
       <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2670,7 +2670,7 @@
       <c r="C130" s="4">
         <v>4</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="6">
         <v>5</v>
       </c>
       <c r="E130" s="2" t="s">
@@ -2684,7 +2684,7 @@
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
-      <c r="D131" s="5"/>
+      <c r="D131" s="6"/>
       <c r="E131" s="2" t="s">
         <v>80</v>
       </c>
@@ -2696,7 +2696,7 @@
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="5"/>
+      <c r="D132" s="6"/>
       <c r="E132" s="2" t="s">
         <v>81</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
-      <c r="D133" s="5"/>
+      <c r="D133" s="6"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
@@ -2720,7 +2720,7 @@
       <c r="C134" s="4">
         <v>4</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="6">
         <v>5</v>
       </c>
       <c r="E134" s="2" t="s">
@@ -2734,7 +2734,7 @@
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="5"/>
+      <c r="D135" s="6"/>
       <c r="E135" s="2" t="s">
         <v>80</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="5"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="2" t="s">
         <v>81</v>
       </c>
@@ -2756,12 +2756,12 @@
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="5"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
     <row r="138" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="A138" s="5">
         <v>58</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -2773,21 +2773,21 @@
       <c r="D138" s="4">
         <v>1</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3"/>
+      <c r="A139" s="5"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="6"/>
+      <c r="E139" s="3"/>
       <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="A140" s="5">
         <v>59</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -2799,17 +2799,17 @@
       <c r="D140" s="4">
         <v>2</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E140" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3"/>
+      <c r="A141" s="5"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="6"/>
+      <c r="E141" s="3"/>
       <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2849,7 +2849,7 @@
       <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="A145" s="5">
         <v>61</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -2861,20 +2861,20 @@
       <c r="D145" s="4">
         <v>2</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="F145" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3"/>
+      <c r="A146" s="5"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
@@ -2889,10 +2889,10 @@
       <c r="D147" s="4">
         <v>3</v>
       </c>
-      <c r="E147" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F147" s="6" t="s">
+      <c r="E147" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2901,8 +2901,8 @@
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
     </row>
     <row r="149" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
@@ -2917,10 +2917,10 @@
       <c r="D149" s="4">
         <v>3</v>
       </c>
-      <c r="E149" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F149" s="6" t="s">
+      <c r="E149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2929,8 +2929,8 @@
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
     </row>
     <row r="151" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
@@ -2945,10 +2945,10 @@
       <c r="D151" s="4">
         <v>3</v>
       </c>
-      <c r="E151" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F151" s="6" t="s">
+      <c r="E151" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2957,11 +2957,11 @@
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="A153" s="5">
         <v>65</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -2970,26 +2970,26 @@
       <c r="C153" s="4">
         <v>2</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="6">
         <v>5</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E153" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F153" s="6" t="s">
+      <c r="F153" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="3"/>
+      <c r="A154" s="5"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="A155" s="5">
         <v>66</v>
       </c>
       <c r="B155" s="4" t="s">
@@ -3001,23 +3001,23 @@
       <c r="D155" s="4">
         <v>2</v>
       </c>
-      <c r="E155" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F155" s="6" t="s">
+      <c r="E155" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="3"/>
+      <c r="A156" s="5"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
     </row>
     <row r="157" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="A157" s="5">
         <v>67</v>
       </c>
       <c r="B157" s="4" t="s">
@@ -3026,10 +3026,10 @@
       <c r="C157" s="4">
         <v>2</v>
       </c>
-      <c r="D157" s="5">
-        <v>4</v>
-      </c>
-      <c r="E157" s="6" t="s">
+      <c r="D157" s="6">
+        <v>4</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F157" s="2" t="s">
@@ -3037,21 +3037,21 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="3"/>
+      <c r="A158" s="5"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="3"/>
       <c r="F158" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="3"/>
+      <c r="A159" s="5"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="3"/>
       <c r="F159" s="1"/>
     </row>
     <row r="160" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3067,7 +3067,7 @@
       <c r="D160" s="4">
         <v>2</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="4"/>
@@ -3077,11 +3077,11 @@
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="6"/>
+      <c r="E161" s="3"/>
       <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162" s="5">
         <v>69</v>
       </c>
       <c r="B162" s="4" t="s">
@@ -3090,24 +3090,24 @@
       <c r="C162" s="4">
         <v>4</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="6">
         <v>4</v>
       </c>
       <c r="E162" s="4"/>
-      <c r="F162" s="6" t="s">
+      <c r="F162" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="3"/>
+      <c r="A163" s="5"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
-      <c r="D163" s="5"/>
+      <c r="D163" s="6"/>
       <c r="E163" s="4"/>
-      <c r="F163" s="6"/>
+      <c r="F163" s="3"/>
     </row>
     <row r="164" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="5">
         <v>70</v>
       </c>
       <c r="B164" s="4" t="s">
@@ -3116,24 +3116,24 @@
       <c r="C164" s="4">
         <v>2</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="6">
         <v>5</v>
       </c>
       <c r="E164" s="4"/>
-      <c r="F164" s="6" t="s">
+      <c r="F164" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="3"/>
+      <c r="A165" s="5"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="5"/>
+      <c r="D165" s="6"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="6"/>
+      <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="A166" s="5">
         <v>71</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -3145,20 +3145,20 @@
       <c r="D166" s="4">
         <v>1</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="F166" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="3"/>
+      <c r="A167" s="5"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
     </row>
     <row r="168" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
@@ -3173,10 +3173,10 @@
       <c r="D168" s="4">
         <v>3</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E168" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="F168" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3185,11 +3185,11 @@
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
     </row>
     <row r="170" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="4">
+      <c r="A170" s="5">
         <v>73</v>
       </c>
       <c r="B170" s="4" t="s">
@@ -3198,20 +3198,20 @@
       <c r="C170" s="4">
         <v>3</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="6">
         <v>5</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="E170" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F170" s="4"/>
     </row>
     <row r="171" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="4"/>
+      <c r="A171" s="5"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="3"/>
       <c r="F171" s="4"/>
     </row>
     <row r="172" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3227,10 +3227,10 @@
       <c r="D172" s="4">
         <v>3</v>
       </c>
-      <c r="E172" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F172" s="6" t="s">
+      <c r="E172" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3239,8 +3239,8 @@
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
     </row>
     <row r="174" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
@@ -3255,7 +3255,7 @@
       <c r="D174" s="4">
         <v>2</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="E174" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F174" s="2" t="s">
@@ -3267,7 +3267,7 @@
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="6"/>
+      <c r="E175" s="3"/>
       <c r="F175" s="2" t="s">
         <v>4</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="6"/>
+      <c r="E176" s="3"/>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3293,10 +3293,10 @@
       <c r="D177" s="4">
         <v>2</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="E177" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F177" s="6" t="s">
+      <c r="F177" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3305,11 +3305,11 @@
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
     </row>
     <row r="179" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+      <c r="A179" s="5">
         <v>77</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -3318,24 +3318,24 @@
       <c r="C179" s="4">
         <v>3</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179" s="6">
         <v>4</v>
       </c>
       <c r="E179" s="4"/>
-      <c r="F179" s="6" t="s">
+      <c r="F179" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="3"/>
+      <c r="A180" s="5"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
-      <c r="D180" s="5"/>
+      <c r="D180" s="6"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="6"/>
+      <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4">
+      <c r="A181" s="5">
         <v>78</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -3344,10 +3344,10 @@
       <c r="C181" s="4">
         <v>3</v>
       </c>
-      <c r="D181" s="5">
-        <v>4</v>
-      </c>
-      <c r="E181" s="6" t="s">
+      <c r="D181" s="6">
+        <v>4</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F181" s="2" t="s">
@@ -3355,21 +3355,21 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="4"/>
+      <c r="A182" s="5"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="3"/>
       <c r="F182" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="4"/>
+      <c r="A183" s="5"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="3"/>
       <c r="F183" s="1"/>
     </row>
     <row r="184" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3382,13 +3382,13 @@
       <c r="C184" s="4">
         <v>3</v>
       </c>
-      <c r="D184" s="5">
-        <v>4</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F184" s="6" t="s">
+      <c r="D184" s="6">
+        <v>4</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F184" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3396,12 +3396,12 @@
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
     </row>
     <row r="186" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+      <c r="A186" s="5">
         <v>80</v>
       </c>
       <c r="B186" s="4" t="s">
@@ -3413,20 +3413,20 @@
       <c r="D186" s="4">
         <v>2</v>
       </c>
-      <c r="E186" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F186" s="6" t="s">
+      <c r="E186" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="3"/>
+      <c r="A187" s="5"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
     </row>
     <row r="188" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
@@ -3441,10 +3441,10 @@
       <c r="D188" s="4">
         <v>3</v>
       </c>
-      <c r="E188" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F188" s="6" t="s">
+      <c r="E188" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F188" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3453,11 +3453,11 @@
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
     </row>
     <row r="190" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+      <c r="A190" s="5">
         <v>82</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -3469,7 +3469,7 @@
       <c r="D190" s="4">
         <v>3</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="E190" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F190" s="2" t="s">
@@ -3477,25 +3477,25 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="3"/>
+      <c r="A191" s="5"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="6"/>
+      <c r="E191" s="3"/>
       <c r="F191" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="3"/>
+      <c r="A192" s="5"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="6"/>
+      <c r="E192" s="3"/>
       <c r="F192" s="1"/>
     </row>
     <row r="193" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+      <c r="A193" s="5">
         <v>83</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -3507,17 +3507,17 @@
       <c r="D193" s="4">
         <v>3</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="E193" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F193" s="4"/>
     </row>
     <row r="194" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="3"/>
+      <c r="A194" s="5"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="6"/>
+      <c r="E194" s="3"/>
       <c r="F194" s="4"/>
     </row>
     <row r="195" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3533,10 +3533,10 @@
       <c r="D195" s="4">
         <v>2</v>
       </c>
-      <c r="E195" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F195" s="6" t="s">
+      <c r="E195" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3545,8 +3545,8 @@
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
@@ -3561,7 +3561,7 @@
       <c r="D197" s="4">
         <v>1</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="E197" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F197" s="2" t="s">
@@ -3573,7 +3573,7 @@
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
-      <c r="E198" s="6"/>
+      <c r="E198" s="3"/>
       <c r="F198" s="2" t="s">
         <v>64</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
-      <c r="E199" s="6"/>
+      <c r="E199" s="3"/>
       <c r="F199" s="1"/>
     </row>
     <row r="200" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3599,10 +3599,10 @@
       <c r="D200" s="4">
         <v>3</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E200" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F200" s="6" t="s">
+      <c r="F200" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3611,8 +3611,8 @@
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
@@ -3627,7 +3627,7 @@
       <c r="D202" s="4">
         <v>2</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E202" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
@@ -3639,7 +3639,7 @@
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="6"/>
+      <c r="E203" s="3"/>
       <c r="F203" s="2" t="s">
         <v>22</v>
       </c>
@@ -3649,11 +3649,11 @@
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="6"/>
+      <c r="E204" s="3"/>
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
+      <c r="A205" s="5">
         <v>88</v>
       </c>
       <c r="B205" s="4" t="s">
@@ -3662,10 +3662,10 @@
       <c r="C205" s="4">
         <v>2</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="6">
         <v>5</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="E205" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F205" s="2" t="s">
@@ -3673,21 +3673,21 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="3"/>
+      <c r="A206" s="5"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="3"/>
       <c r="F206" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="3"/>
+      <c r="A207" s="5"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="3"/>
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="E208" s="4"/>
-      <c r="F208" s="6" t="s">
+      <c r="F208" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3714,10 +3714,10 @@
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="6"/>
+      <c r="F209" s="3"/>
     </row>
     <row r="210" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="4">
+      <c r="A210" s="5">
         <v>90</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -3729,7 +3729,7 @@
       <c r="D210" s="4">
         <v>2</v>
       </c>
-      <c r="E210" s="6" t="s">
+      <c r="E210" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F210" s="2" t="s">
@@ -3737,21 +3737,21 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="4"/>
+      <c r="A211" s="5"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
-      <c r="E211" s="6"/>
+      <c r="E211" s="3"/>
       <c r="F211" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="4"/>
+      <c r="A212" s="5"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
-      <c r="E212" s="6"/>
+      <c r="E212" s="3"/>
       <c r="F212" s="1"/>
     </row>
     <row r="213" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3764,10 +3764,10 @@
       <c r="C213" s="4">
         <v>3</v>
       </c>
-      <c r="D213" s="5">
-        <v>4</v>
-      </c>
-      <c r="E213" s="6" t="s">
+      <c r="D213" s="6">
+        <v>4</v>
+      </c>
+      <c r="E213" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F213" s="2" t="s">
@@ -3778,8 +3778,8 @@
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="3"/>
       <c r="F214" s="2" t="s">
         <v>22</v>
       </c>
@@ -3788,8 +3788,8 @@
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="3"/>
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3805,10 +3805,10 @@
       <c r="D216" s="4">
         <v>2</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="E216" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F216" s="6" t="s">
+      <c r="F216" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3817,8 +3817,8 @@
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
-      <c r="E217" s="6"/>
-      <c r="F217" s="6"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
@@ -3833,10 +3833,10 @@
       <c r="D218" s="4">
         <v>3</v>
       </c>
-      <c r="E218" s="6" t="s">
+      <c r="E218" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F218" s="6" t="s">
+      <c r="F218" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3845,8 +3845,8 @@
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
-      <c r="E219" s="6"/>
-      <c r="F219" s="6"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
     </row>
     <row r="220" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
@@ -3911,7 +3911,7 @@
       <c r="D224" s="4">
         <v>1</v>
       </c>
-      <c r="E224" s="6" t="s">
+      <c r="E224" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F224" s="2" t="s">
@@ -3923,7 +3923,7 @@
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
-      <c r="E225" s="6"/>
+      <c r="E225" s="3"/>
       <c r="F225" s="2" t="s">
         <v>126</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
-      <c r="E226" s="6"/>
+      <c r="E226" s="3"/>
       <c r="F226" s="1"/>
     </row>
     <row r="227" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3949,10 +3949,10 @@
       <c r="D227" s="4">
         <v>1</v>
       </c>
-      <c r="E227" s="6" t="s">
+      <c r="E227" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F227" s="6" t="s">
+      <c r="F227" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3961,8 +3961,8 @@
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
-      <c r="E228" s="6"/>
-      <c r="F228" s="6"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
     </row>
     <row r="229" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
@@ -3977,7 +3977,7 @@
       <c r="D229" s="4">
         <v>2</v>
       </c>
-      <c r="E229" s="6" t="s">
+      <c r="E229" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F229" s="2" t="s">
@@ -3989,7 +3989,7 @@
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
-      <c r="E230" s="6"/>
+      <c r="E230" s="3"/>
       <c r="F230" s="2" t="s">
         <v>22</v>
       </c>
@@ -3999,11 +3999,11 @@
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
-      <c r="E231" s="6"/>
+      <c r="E231" s="3"/>
       <c r="F231" s="1"/>
     </row>
     <row r="232" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
+      <c r="A232" s="5">
         <v>98</v>
       </c>
       <c r="B232" s="4" t="s">
@@ -4012,23 +4012,23 @@
       <c r="C232" s="4">
         <v>3</v>
       </c>
-      <c r="D232" s="5">
+      <c r="D232" s="6">
         <v>5</v>
       </c>
-      <c r="E232" s="6" t="s">
+      <c r="E232" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F232" s="6" t="s">
+      <c r="F232" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="3"/>
+      <c r="A233" s="5"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="6"/>
-      <c r="F233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
     </row>
     <row r="234" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
@@ -4043,10 +4043,10 @@
       <c r="D234" s="4">
         <v>2</v>
       </c>
-      <c r="E234" s="6" t="s">
+      <c r="E234" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F234" s="6" t="s">
+      <c r="F234" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4055,11 +4055,11 @@
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
-      <c r="E235" s="6"/>
-      <c r="F235" s="6"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
     </row>
     <row r="236" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
+      <c r="A236" s="5">
         <v>100</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -4071,23 +4071,23 @@
       <c r="D236" s="4">
         <v>1</v>
       </c>
-      <c r="E236" s="6" t="s">
+      <c r="E236" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F236" s="6" t="s">
+      <c r="F236" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="3"/>
+      <c r="A237" s="5"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
-      <c r="E237" s="6"/>
-      <c r="F237" s="6"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
     </row>
     <row r="238" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
+      <c r="A238" s="5">
         <v>101</v>
       </c>
       <c r="B238" s="4" t="s">
@@ -4099,23 +4099,23 @@
       <c r="D238" s="4">
         <v>2</v>
       </c>
-      <c r="E238" s="6" t="s">
+      <c r="E238" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F238" s="6" t="s">
+      <c r="F238" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="3"/>
+      <c r="A239" s="5"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
-      <c r="E239" s="6"/>
-      <c r="F239" s="6"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
     </row>
     <row r="240" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="4">
+      <c r="A240" s="5">
         <v>102</v>
       </c>
       <c r="B240" s="4" t="s">
@@ -4124,23 +4124,23 @@
       <c r="C240" s="4">
         <v>3</v>
       </c>
-      <c r="D240" s="5">
-        <v>4</v>
-      </c>
-      <c r="E240" s="6" t="s">
+      <c r="D240" s="6">
+        <v>4</v>
+      </c>
+      <c r="E240" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F240" s="6" t="s">
+      <c r="F240" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="4"/>
+      <c r="A241" s="5"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
     </row>
     <row r="242" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
@@ -4183,7 +4183,7 @@
       <c r="F244" s="1"/>
     </row>
     <row r="245" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="3">
+      <c r="A245" s="5">
         <v>104</v>
       </c>
       <c r="B245" s="4" t="s">
@@ -4195,20 +4195,20 @@
       <c r="D245" s="4">
         <v>1</v>
       </c>
-      <c r="E245" s="6" t="s">
+      <c r="E245" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F245" s="6" t="s">
+      <c r="F245" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="3"/>
+      <c r="A246" s="5"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="6"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
     </row>
     <row r="247" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
@@ -4226,7 +4226,7 @@
       <c r="E247" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F247" s="6" t="s">
+      <c r="F247" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4238,7 +4238,7 @@
       <c r="E248" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F248" s="6"/>
+      <c r="F248" s="3"/>
     </row>
     <row r="249" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
@@ -4246,7 +4246,7 @@
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="6"/>
+      <c r="F249" s="3"/>
     </row>
     <row r="250" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
@@ -4264,7 +4264,7 @@
       <c r="E250" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F250" s="6" t="s">
+      <c r="F250" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
       <c r="E251" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F251" s="6"/>
+      <c r="F251" s="3"/>
     </row>
     <row r="252" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
@@ -4284,10 +4284,10 @@
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="6"/>
+      <c r="F252" s="3"/>
     </row>
     <row r="253" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="4">
+      <c r="A253" s="5">
         <v>107</v>
       </c>
       <c r="B253" s="4" t="s">
@@ -4299,20 +4299,20 @@
       <c r="D253" s="4">
         <v>1</v>
       </c>
-      <c r="E253" s="6" t="s">
+      <c r="E253" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F253" s="6" t="s">
+      <c r="F253" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="4"/>
+      <c r="A254" s="5"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
-      <c r="E254" s="6"/>
-      <c r="F254" s="6"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
     </row>
     <row r="255" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
@@ -4327,10 +4327,10 @@
       <c r="D255" s="4">
         <v>3</v>
       </c>
-      <c r="E255" s="6" t="s">
+      <c r="E255" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F255" s="6" t="s">
+      <c r="F255" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4339,8 +4339,8 @@
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="6"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
     </row>
     <row r="257" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
@@ -4355,7 +4355,7 @@
       <c r="D257" s="4">
         <v>3</v>
       </c>
-      <c r="E257" s="6" t="s">
+      <c r="E257" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F257" s="2" t="s">
@@ -4367,7 +4367,7 @@
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
-      <c r="E258" s="6"/>
+      <c r="E258" s="3"/>
       <c r="F258" s="2" t="s">
         <v>4</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
-      <c r="E259" s="6"/>
+      <c r="E259" s="3"/>
       <c r="F259" s="1"/>
     </row>
     <row r="260" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4393,10 +4393,10 @@
       <c r="D260" s="4">
         <v>2</v>
       </c>
-      <c r="E260" s="6" t="s">
+      <c r="E260" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F260" s="6" t="s">
+      <c r="F260" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4405,11 +4405,11 @@
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="6"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
     </row>
     <row r="262" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="3">
+      <c r="A262" s="5">
         <v>111</v>
       </c>
       <c r="B262" s="4" t="s">
@@ -4421,23 +4421,23 @@
       <c r="D262" s="4">
         <v>1</v>
       </c>
-      <c r="E262" s="6" t="s">
+      <c r="E262" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F262" s="6" t="s">
+      <c r="F262" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="3"/>
+      <c r="A263" s="5"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
     </row>
     <row r="264" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="3">
+      <c r="A264" s="5">
         <v>112</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -4449,23 +4449,23 @@
       <c r="D264" s="4">
         <v>3</v>
       </c>
-      <c r="E264" s="6" t="s">
+      <c r="E264" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F264" s="6" t="s">
+      <c r="F264" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="3"/>
+      <c r="A265" s="5"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="6"/>
-      <c r="F265" s="6"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
     </row>
     <row r="266" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="3">
+      <c r="A266" s="5">
         <v>113</v>
       </c>
       <c r="B266" s="4" t="s">
@@ -4477,20 +4477,20 @@
       <c r="D266" s="4">
         <v>2</v>
       </c>
-      <c r="E266" s="6" t="s">
+      <c r="E266" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F266" s="6" t="s">
+      <c r="F266" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="3"/>
+      <c r="A267" s="5"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
-      <c r="E267" s="6"/>
-      <c r="F267" s="6"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
     </row>
     <row r="268" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
@@ -4505,7 +4505,7 @@
       <c r="D268" s="4">
         <v>3</v>
       </c>
-      <c r="E268" s="6" t="s">
+      <c r="E268" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F268" s="2" t="s">
@@ -4517,7 +4517,7 @@
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
-      <c r="E269" s="6"/>
+      <c r="E269" s="3"/>
       <c r="F269" s="2" t="s">
         <v>64</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
-      <c r="E270" s="6"/>
+      <c r="E270" s="3"/>
       <c r="F270" s="1"/>
     </row>
     <row r="271" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4543,10 +4543,10 @@
       <c r="D271" s="4">
         <v>2</v>
       </c>
-      <c r="E271" s="6" t="s">
+      <c r="E271" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F271" s="6" t="s">
+      <c r="F271" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4555,8 +4555,8 @@
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
     </row>
     <row r="273" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
@@ -4571,10 +4571,10 @@
       <c r="D273" s="4">
         <v>3</v>
       </c>
-      <c r="E273" s="6" t="s">
+      <c r="E273" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F273" s="6" t="s">
+      <c r="F273" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4583,8 +4583,8 @@
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
@@ -4599,10 +4599,10 @@
       <c r="D275" s="4">
         <v>2</v>
       </c>
-      <c r="E275" s="6" t="s">
+      <c r="E275" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F275" s="6" t="s">
+      <c r="F275" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4611,11 +4611,11 @@
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
-      <c r="E276" s="6"/>
-      <c r="F276" s="6"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
     </row>
     <row r="277" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="3">
+      <c r="A277" s="5">
         <v>118</v>
       </c>
       <c r="B277" s="4" t="s">
@@ -4627,21 +4627,21 @@
       <c r="D277" s="4">
         <v>1</v>
       </c>
-      <c r="E277" s="6" t="s">
+      <c r="E277" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F277" s="4"/>
     </row>
     <row r="278" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="3"/>
+      <c r="A278" s="5"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="6"/>
+      <c r="E278" s="3"/>
       <c r="F278" s="4"/>
     </row>
     <row r="279" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="3">
+      <c r="A279" s="5">
         <v>119</v>
       </c>
       <c r="B279" s="4" t="s">
@@ -4653,17 +4653,17 @@
       <c r="D279" s="4">
         <v>1</v>
       </c>
-      <c r="E279" s="6" t="s">
+      <c r="E279" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F279" s="4"/>
     </row>
     <row r="280" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="3"/>
+      <c r="A280" s="5"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
-      <c r="E280" s="6"/>
+      <c r="E280" s="3"/>
       <c r="F280" s="4"/>
     </row>
     <row r="281" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4679,10 +4679,10 @@
       <c r="D281" s="4">
         <v>1</v>
       </c>
-      <c r="E281" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F281" s="6" t="s">
+      <c r="E281" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F281" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4691,8 +4691,8 @@
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
-      <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
     </row>
     <row r="283" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
@@ -4707,10 +4707,10 @@
       <c r="D283" s="4">
         <v>1</v>
       </c>
-      <c r="E283" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F283" s="6" t="s">
+      <c r="E283" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F283" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4719,8 +4719,8 @@
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
-      <c r="E284" s="6"/>
-      <c r="F284" s="6"/>
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
     </row>
     <row r="285" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
@@ -4735,10 +4735,10 @@
       <c r="D285" s="4">
         <v>1</v>
       </c>
-      <c r="E285" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F285" s="6" t="s">
+      <c r="E285" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F285" s="3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4747,8 +4747,8 @@
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
-      <c r="E286" s="6"/>
-      <c r="F286" s="6"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
     </row>
     <row r="287" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
@@ -4763,10 +4763,10 @@
       <c r="D287" s="4">
         <v>1</v>
       </c>
-      <c r="E287" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F287" s="6" t="s">
+      <c r="E287" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F287" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4775,8 +4775,8 @@
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
-      <c r="E288" s="6"/>
-      <c r="F288" s="6"/>
+      <c r="E288" s="3"/>
+      <c r="F288" s="3"/>
     </row>
     <row r="289" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
@@ -4791,10 +4791,10 @@
       <c r="D289" s="4">
         <v>2</v>
       </c>
-      <c r="E289" s="6" t="s">
+      <c r="E289" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F289" s="6" t="s">
+      <c r="F289" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4803,11 +4803,11 @@
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
-      <c r="E290" s="6"/>
-      <c r="F290" s="6"/>
+      <c r="E290" s="3"/>
+      <c r="F290" s="3"/>
     </row>
     <row r="291" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="3">
+      <c r="A291" s="5">
         <v>125</v>
       </c>
       <c r="B291" s="4" t="s">
@@ -4816,23 +4816,23 @@
       <c r="C291" s="4">
         <v>2</v>
       </c>
-      <c r="D291" s="5">
+      <c r="D291" s="6">
         <v>5</v>
       </c>
-      <c r="E291" s="6" t="s">
+      <c r="E291" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F291" s="6" t="s">
+      <c r="F291" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="3"/>
+      <c r="A292" s="5"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
-      <c r="D292" s="5"/>
-      <c r="E292" s="6"/>
-      <c r="F292" s="6"/>
+      <c r="D292" s="6"/>
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
     </row>
     <row r="293" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
@@ -4868,10 +4868,10 @@
       <c r="C295" s="4">
         <v>3</v>
       </c>
-      <c r="D295" s="5">
+      <c r="D295" s="6">
         <v>5</v>
       </c>
-      <c r="E295" s="6" t="s">
+      <c r="E295" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F295" s="2" t="s">
@@ -4882,8 +4882,8 @@
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
-      <c r="D296" s="5"/>
-      <c r="E296" s="6"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="3"/>
       <c r="F296" s="2" t="s">
         <v>164</v>
       </c>
@@ -4892,8 +4892,8 @@
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
-      <c r="D297" s="5"/>
-      <c r="E297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="3"/>
       <c r="F297" s="1"/>
     </row>
     <row r="298" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4909,7 +4909,7 @@
       <c r="D298" s="4">
         <v>3</v>
       </c>
-      <c r="E298" s="6" t="s">
+      <c r="E298" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F298" s="4"/>
@@ -4919,11 +4919,11 @@
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
-      <c r="E299" s="6"/>
+      <c r="E299" s="3"/>
       <c r="F299" s="4"/>
     </row>
     <row r="300" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="4">
+      <c r="A300" s="5">
         <v>129</v>
       </c>
       <c r="B300" s="4" t="s">
@@ -4932,26 +4932,26 @@
       <c r="C300" s="4">
         <v>2</v>
       </c>
-      <c r="D300" s="5">
-        <v>4</v>
-      </c>
-      <c r="E300" s="6" t="s">
+      <c r="D300" s="6">
+        <v>4</v>
+      </c>
+      <c r="E300" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F300" s="6" t="s">
+      <c r="F300" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="4"/>
+      <c r="A301" s="5"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
-      <c r="D301" s="5"/>
-      <c r="E301" s="6"/>
-      <c r="F301" s="6"/>
+      <c r="D301" s="6"/>
+      <c r="E301" s="3"/>
+      <c r="F301" s="3"/>
     </row>
     <row r="302" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="4">
+      <c r="A302" s="5">
         <v>130</v>
       </c>
       <c r="B302" s="4" t="s">
@@ -4963,7 +4963,7 @@
       <c r="D302" s="4">
         <v>3</v>
       </c>
-      <c r="E302" s="6" t="s">
+      <c r="E302" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F302" s="2" t="s">
@@ -4971,25 +4971,25 @@
       </c>
     </row>
     <row r="303" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="4"/>
+      <c r="A303" s="5"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
-      <c r="E303" s="6"/>
+      <c r="E303" s="3"/>
       <c r="F303" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="4"/>
+      <c r="A304" s="5"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
-      <c r="E304" s="6"/>
+      <c r="E304" s="3"/>
       <c r="F304" s="1"/>
     </row>
     <row r="305" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="4">
+      <c r="A305" s="5">
         <v>131</v>
       </c>
       <c r="B305" s="4" t="s">
@@ -4998,23 +4998,23 @@
       <c r="C305" s="4">
         <v>3</v>
       </c>
-      <c r="D305" s="5">
-        <v>4</v>
-      </c>
-      <c r="E305" s="6" t="s">
+      <c r="D305" s="6">
+        <v>4</v>
+      </c>
+      <c r="E305" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F305" s="6" t="s">
+      <c r="F305" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="4"/>
+      <c r="A306" s="5"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
-      <c r="D306" s="5"/>
-      <c r="E306" s="6"/>
-      <c r="F306" s="6"/>
+      <c r="D306" s="6"/>
+      <c r="E306" s="3"/>
+      <c r="F306" s="3"/>
     </row>
     <row r="307" spans="1:6" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
@@ -5029,10 +5029,10 @@
       <c r="D307" s="4">
         <v>3</v>
       </c>
-      <c r="E307" s="6" t="s">
+      <c r="E307" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F307" s="6" t="s">
+      <c r="F307" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5041,40 +5041,708 @@
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
-      <c r="E308" s="6"/>
-      <c r="F308" s="6"/>
+      <c r="E308" s="3"/>
+      <c r="F308" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="750">
-    <mergeCell ref="F305:F306"/>
-    <mergeCell ref="A307:A308"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="E307:E308"/>
-    <mergeCell ref="F307:F308"/>
-    <mergeCell ref="D302:D304"/>
-    <mergeCell ref="E302:E304"/>
-    <mergeCell ref="A305:A306"/>
-    <mergeCell ref="B305:B306"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="E305:E306"/>
-    <mergeCell ref="A302:A304"/>
-    <mergeCell ref="B302:B304"/>
-    <mergeCell ref="C302:C304"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="E298:E299"/>
-    <mergeCell ref="F298:F299"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="B300:B301"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="D300:D301"/>
-    <mergeCell ref="E300:E301"/>
-    <mergeCell ref="F300:F301"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="F238:F239"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="E234:E235"/>
+    <mergeCell ref="F234:F235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="F275:F276"/>
+    <mergeCell ref="A268:A270"/>
+    <mergeCell ref="B268:B270"/>
+    <mergeCell ref="C268:C270"/>
+    <mergeCell ref="F271:F272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="F273:F274"/>
+    <mergeCell ref="D268:D270"/>
+    <mergeCell ref="E268:E270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:E288"/>
+    <mergeCell ref="F287:F288"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="D181:D183"/>
+    <mergeCell ref="E181:E183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="D190:D192"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="E205:E207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="C202:C204"/>
+    <mergeCell ref="D202:D204"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="D205:D207"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="E213:E215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="D210:D212"/>
+    <mergeCell ref="E210:E212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="E224:E226"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="D224:D226"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="D220:D223"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="D229:D231"/>
+    <mergeCell ref="E229:E231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="E245:E246"/>
+    <mergeCell ref="F245:F246"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="B247:B249"/>
+    <mergeCell ref="C247:C249"/>
+    <mergeCell ref="D247:D249"/>
+    <mergeCell ref="F247:F249"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="C242:C244"/>
+    <mergeCell ref="D242:D244"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="F255:F256"/>
+    <mergeCell ref="D250:D252"/>
+    <mergeCell ref="F250:F252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="F253:F254"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="B250:B252"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="D257:D259"/>
+    <mergeCell ref="E257:E259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="A257:A259"/>
+    <mergeCell ref="B257:B259"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="F266:F267"/>
+    <mergeCell ref="F260:F261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="F262:F263"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="F264:F265"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="F283:F284"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="F277:F278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="F279:F280"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="F281:F282"/>
+    <mergeCell ref="A277:A278"/>
     <mergeCell ref="B277:B278"/>
     <mergeCell ref="E293:E294"/>
     <mergeCell ref="F293:F294"/>
@@ -5099,703 +5767,35 @@
     <mergeCell ref="B289:B290"/>
     <mergeCell ref="C289:C290"/>
     <mergeCell ref="D289:D290"/>
-    <mergeCell ref="E271:E272"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="F283:F284"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="F277:F278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="F279:F280"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="F281:F282"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="E266:E267"/>
-    <mergeCell ref="F266:F267"/>
-    <mergeCell ref="F260:F261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="E262:E263"/>
-    <mergeCell ref="F262:F263"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="E264:E265"/>
-    <mergeCell ref="F264:F265"/>
-    <mergeCell ref="D257:D259"/>
-    <mergeCell ref="E257:E259"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="A257:A259"/>
-    <mergeCell ref="B257:B259"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="F255:F256"/>
-    <mergeCell ref="D250:D252"/>
-    <mergeCell ref="F250:F252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="F253:F254"/>
-    <mergeCell ref="A250:A252"/>
-    <mergeCell ref="B250:B252"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="E245:E246"/>
-    <mergeCell ref="F245:F246"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="B247:B249"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="D247:D249"/>
-    <mergeCell ref="F247:F249"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="F240:F241"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="C242:C244"/>
-    <mergeCell ref="D242:D244"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="D229:D231"/>
-    <mergeCell ref="E229:E231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="E224:E226"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="D224:D226"/>
-    <mergeCell ref="A220:A223"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="C220:C223"/>
-    <mergeCell ref="D220:D223"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="D213:D215"/>
-    <mergeCell ref="E213:E215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="D210:D212"/>
-    <mergeCell ref="E210:E212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="E205:E207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="D202:D204"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="D205:D207"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="D190:D192"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="D181:D183"/>
-    <mergeCell ref="E181:E183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="F287:F288"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="F275:F276"/>
-    <mergeCell ref="A268:A270"/>
-    <mergeCell ref="B268:B270"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="F271:F272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="E273:E274"/>
-    <mergeCell ref="F273:F274"/>
-    <mergeCell ref="D268:D270"/>
-    <mergeCell ref="E268:E270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="E238:E239"/>
-    <mergeCell ref="F238:F239"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="D234:D235"/>
-    <mergeCell ref="E234:E235"/>
-    <mergeCell ref="F234:F235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="E298:E299"/>
+    <mergeCell ref="F298:F299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="D300:D301"/>
+    <mergeCell ref="E300:E301"/>
+    <mergeCell ref="F300:F301"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="F305:F306"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="F307:F308"/>
+    <mergeCell ref="D302:D304"/>
+    <mergeCell ref="E302:E304"/>
+    <mergeCell ref="A305:A306"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="E305:E306"/>
+    <mergeCell ref="A302:A304"/>
+    <mergeCell ref="B302:B304"/>
+    <mergeCell ref="C302:C304"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
